--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H2">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I2">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J2">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.38282733809812</v>
+        <v>0.09661450000000001</v>
       </c>
       <c r="N2">
-        <v>1.38282733809812</v>
+        <v>0.193229</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03704165672764609</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.02500315727472327</v>
       </c>
       <c r="Q2">
-        <v>5.219384932445919</v>
+        <v>0.36476393863375</v>
       </c>
       <c r="R2">
-        <v>5.219384932445919</v>
+        <v>1.459055754535</v>
       </c>
       <c r="S2">
-        <v>0.1857066246448638</v>
+        <v>0.006328380748611079</v>
       </c>
       <c r="T2">
-        <v>0.1857066246448638</v>
+        <v>0.003064160669480557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22991504304809</v>
+        <v>3.7754575</v>
       </c>
       <c r="H3">
-        <v>1.22991504304809</v>
+        <v>7.550915</v>
       </c>
       <c r="I3">
-        <v>0.06051334208119499</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J3">
-        <v>0.06051334208119499</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.38282733809812</v>
+        <v>1.074835333333333</v>
       </c>
       <c r="N3">
-        <v>1.38282733809812</v>
+        <v>3.224506</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4120880556860346</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.417239806919711</v>
       </c>
       <c r="Q3">
-        <v>1.700760145065025</v>
+        <v>4.057995120498333</v>
       </c>
       <c r="R3">
-        <v>1.700760145065025</v>
+        <v>24.34797072299</v>
       </c>
       <c r="S3">
-        <v>0.06051334208119499</v>
+        <v>0.07040317169155395</v>
       </c>
       <c r="T3">
-        <v>0.06051334208119499</v>
+        <v>0.05113313459006707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65353069794807</v>
+        <v>3.7754575</v>
       </c>
       <c r="H4">
-        <v>3.65353069794807</v>
+        <v>7.550915</v>
       </c>
       <c r="I4">
-        <v>0.179758231415041</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J4">
-        <v>0.179758231415041</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.38282733809812</v>
+        <v>1.436816333333333</v>
       </c>
       <c r="N4">
-        <v>1.38282733809812</v>
+        <v>4.310449</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5508702875863194</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5577570358055657</v>
       </c>
       <c r="Q4">
-        <v>5.052202129703296</v>
+        <v>5.424639001805834</v>
       </c>
       <c r="R4">
-        <v>5.052202129703296</v>
+        <v>32.547834010835</v>
       </c>
       <c r="S4">
-        <v>0.179758231415041</v>
+        <v>0.09411341799788465</v>
       </c>
       <c r="T4">
-        <v>0.179758231415041</v>
+        <v>0.06835365443904276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.58658983817303</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H5">
-        <v>7.58658983817303</v>
+        <v>3.981953</v>
       </c>
       <c r="I5">
-        <v>0.3732696080936801</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J5">
-        <v>0.3732696080936801</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.38282733809812</v>
+        <v>0.09661450000000001</v>
       </c>
       <c r="N5">
-        <v>1.38282733809812</v>
+        <v>0.193229</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.03704165672764609</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.02500315727472327</v>
       </c>
       <c r="Q5">
-        <v>10.49094383116306</v>
+        <v>0.1282381327061667</v>
       </c>
       <c r="R5">
-        <v>10.49094383116306</v>
+        <v>0.7694287962370001</v>
       </c>
       <c r="S5">
-        <v>0.3732696080936801</v>
+        <v>0.0022248354190253</v>
       </c>
       <c r="T5">
-        <v>0.3732696080936801</v>
+        <v>0.001615876191205981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.17730865000538</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H6">
-        <v>3.17730865000538</v>
+        <v>3.981953</v>
       </c>
       <c r="I6">
-        <v>0.156327517353406</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J6">
-        <v>0.156327517353406</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.38282733809812</v>
+        <v>1.074835333333333</v>
       </c>
       <c r="N6">
-        <v>1.38282733809812</v>
+        <v>3.224506</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.4120880556860346</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.417239806919711</v>
       </c>
       <c r="Q6">
-        <v>4.393669262803071</v>
+        <v>1.426647926690889</v>
       </c>
       <c r="R6">
-        <v>4.393669262803071</v>
+        <v>12.839831340218</v>
       </c>
       <c r="S6">
-        <v>0.156327517353406</v>
+        <v>0.02475127148843978</v>
       </c>
       <c r="T6">
-        <v>0.156327517353406</v>
+        <v>0.02696490937592614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.90291786773438</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H7">
-        <v>0.90291786773438</v>
+        <v>3.981953</v>
       </c>
       <c r="I7">
-        <v>0.04442467641181402</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J7">
-        <v>0.04442467641181402</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.38282733809812</v>
+        <v>1.436816333333333</v>
       </c>
       <c r="N7">
-        <v>1.38282733809812</v>
+        <v>4.310449</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.5508702875863194</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.5577570358055657</v>
       </c>
       <c r="Q7">
-        <v>1.248579511560363</v>
+        <v>1.907111702988556</v>
       </c>
       <c r="R7">
-        <v>1.248579511560363</v>
+        <v>17.164005326897</v>
       </c>
       <c r="S7">
-        <v>0.04442467641181402</v>
+        <v>0.03308695764128637</v>
       </c>
       <c r="T7">
-        <v>0.04442467641181402</v>
+        <v>0.03604610028778098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H8">
+        <v>15.564294</v>
+      </c>
+      <c r="I8">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J8">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.09661450000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.193229</v>
+      </c>
+      <c r="O8">
+        <v>0.03704165672764609</v>
+      </c>
+      <c r="P8">
+        <v>0.02500315727472327</v>
+      </c>
+      <c r="Q8">
+        <v>0.501245494221</v>
+      </c>
+      <c r="R8">
+        <v>3.007472965326</v>
+      </c>
+      <c r="S8">
+        <v>0.008696233371745713</v>
+      </c>
+      <c r="T8">
+        <v>0.00631598919111554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H9">
+        <v>15.564294</v>
+      </c>
+      <c r="I9">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J9">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>1.074835333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.224506</v>
+      </c>
+      <c r="O9">
+        <v>0.4120880556860346</v>
+      </c>
+      <c r="P9">
+        <v>0.417239806919711</v>
+      </c>
+      <c r="Q9">
+        <v>5.576351043196</v>
+      </c>
+      <c r="R9">
+        <v>50.18715938876399</v>
+      </c>
+      <c r="S9">
+        <v>0.09674550812626222</v>
+      </c>
+      <c r="T9">
+        <v>0.1053979736100027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H10">
+        <v>15.564294</v>
+      </c>
+      <c r="I10">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J10">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.436816333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.310449</v>
+      </c>
+      <c r="O10">
+        <v>0.5508702875863194</v>
+      </c>
+      <c r="P10">
+        <v>0.5577570358055657</v>
+      </c>
+      <c r="Q10">
+        <v>7.454343945333999</v>
+      </c>
+      <c r="R10">
+        <v>67.089095508006</v>
+      </c>
+      <c r="S10">
+        <v>0.1293272764129882</v>
+      </c>
+      <c r="T10">
+        <v>0.1408937027716067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H11">
+        <v>23.032583</v>
+      </c>
+      <c r="I11">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J11">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.09661450000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.193229</v>
+      </c>
+      <c r="O11">
+        <v>0.03704165672764609</v>
+      </c>
+      <c r="P11">
+        <v>0.02500315727472327</v>
+      </c>
+      <c r="Q11">
+        <v>0.7417604967511667</v>
+      </c>
+      <c r="R11">
+        <v>4.450562980507001</v>
+      </c>
+      <c r="S11">
+        <v>0.0128689882703387</v>
+      </c>
+      <c r="T11">
+        <v>0.009346620236772164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H12">
+        <v>23.032583</v>
+      </c>
+      <c r="I12">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J12">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>1.074835333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.224506</v>
+      </c>
+      <c r="O12">
+        <v>0.4120880556860346</v>
+      </c>
+      <c r="P12">
+        <v>0.417239806919711</v>
+      </c>
+      <c r="Q12">
+        <v>8.252078008777556</v>
+      </c>
+      <c r="R12">
+        <v>74.268702078998</v>
+      </c>
+      <c r="S12">
+        <v>0.1431673640831579</v>
+      </c>
+      <c r="T12">
+        <v>0.1559715831122309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H13">
+        <v>23.032583</v>
+      </c>
+      <c r="I13">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J13">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.436816333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.310449</v>
+      </c>
+      <c r="O13">
+        <v>0.5508702875863194</v>
+      </c>
+      <c r="P13">
+        <v>0.5577570358055657</v>
+      </c>
+      <c r="Q13">
+        <v>11.03119715108522</v>
+      </c>
+      <c r="R13">
+        <v>99.28077435976701</v>
+      </c>
+      <c r="S13">
+        <v>0.1913829967582271</v>
+      </c>
+      <c r="T13">
+        <v>0.2084993963275406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J14">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.09661450000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.193229</v>
+      </c>
+      <c r="O14">
+        <v>0.03704165672764609</v>
+      </c>
+      <c r="P14">
+        <v>0.02500315727472327</v>
+      </c>
+      <c r="Q14">
+        <v>0.3114933924373334</v>
+      </c>
+      <c r="R14">
+        <v>1.868960354624</v>
+      </c>
+      <c r="S14">
+        <v>0.005404176727018118</v>
+      </c>
+      <c r="T14">
+        <v>0.003925000668176947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J15">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>1.074835333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.224506</v>
+      </c>
+      <c r="O15">
+        <v>0.4120880556860346</v>
+      </c>
+      <c r="P15">
+        <v>0.417239806919711</v>
+      </c>
+      <c r="Q15">
+        <v>3.465360833948445</v>
+      </c>
+      <c r="R15">
+        <v>31.188247505536</v>
+      </c>
+      <c r="S15">
+        <v>0.06012141131793634</v>
+      </c>
+      <c r="T15">
+        <v>0.06549838898167755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J16">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.436816333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.310449</v>
+      </c>
+      <c r="O16">
+        <v>0.5508702875863194</v>
+      </c>
+      <c r="P16">
+        <v>0.5577570358055657</v>
+      </c>
+      <c r="Q16">
+        <v>4.632418466993778</v>
+      </c>
+      <c r="R16">
+        <v>41.691766202944</v>
+      </c>
+      <c r="S16">
+        <v>0.08036898591411752</v>
+      </c>
+      <c r="T16">
+        <v>0.08755681189232802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9062475</v>
+      </c>
+      <c r="H17">
+        <v>1.812495</v>
+      </c>
+      <c r="I17">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J17">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.09661450000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.193229</v>
+      </c>
+      <c r="O17">
+        <v>0.03704165672764609</v>
+      </c>
+      <c r="P17">
+        <v>0.02500315727472327</v>
+      </c>
+      <c r="Q17">
+        <v>0.08755664908875001</v>
+      </c>
+      <c r="R17">
+        <v>0.350226596355</v>
+      </c>
+      <c r="S17">
+        <v>0.001519042190907173</v>
+      </c>
+      <c r="T17">
+        <v>0.0007355103179720817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9062475</v>
+      </c>
+      <c r="H18">
+        <v>1.812495</v>
+      </c>
+      <c r="I18">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J18">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>1.074835333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.224506</v>
+      </c>
+      <c r="O18">
+        <v>0.4120880556860346</v>
+      </c>
+      <c r="P18">
+        <v>0.417239806919711</v>
+      </c>
+      <c r="Q18">
+        <v>0.974066833745</v>
+      </c>
+      <c r="R18">
+        <v>5.84440100247</v>
+      </c>
+      <c r="S18">
+        <v>0.01689932897868445</v>
+      </c>
+      <c r="T18">
+        <v>0.01227381724980663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9062475</v>
+      </c>
+      <c r="H19">
+        <v>1.812495</v>
+      </c>
+      <c r="I19">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J19">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.436816333333333</v>
+      </c>
+      <c r="N19">
+        <v>4.310449</v>
+      </c>
+      <c r="O19">
+        <v>0.5508702875863194</v>
+      </c>
+      <c r="P19">
+        <v>0.5577570358055657</v>
+      </c>
+      <c r="Q19">
+        <v>1.3021112100425</v>
+      </c>
+      <c r="R19">
+        <v>7.812667260255</v>
+      </c>
+      <c r="S19">
+        <v>0.02259065286181555</v>
+      </c>
+      <c r="T19">
+        <v>0.01640737008726662</v>
       </c>
     </row>
   </sheetData>
